--- a/public/templates/traycard.xlsx
+++ b/public/templates/traycard.xlsx
@@ -11,32 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Textures:</t>
-  </si>
-  <si>
-    <t>Orders:</t>
-  </si>
-  <si>
-    <t>Portion Size:</t>
-  </si>
-  <si>
-    <t>Allergies:</t>
-  </si>
-  <si>
-    <t>Do Not Serve</t>
-  </si>
-  <si>
-    <t>Meals</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -150,24 +125,12 @@
       <c r="E3" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
@@ -175,15 +138,9 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
@@ -191,15 +148,9 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
@@ -207,15 +158,9 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
@@ -223,15 +168,9 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
@@ -239,15 +178,9 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
@@ -293,15 +226,9 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="6"/>
@@ -312,11 +239,14 @@
       <c r="F25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
   </mergeCells>
